--- a/data/trans_orig/P29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>121586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102105</v>
+        <v>102979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144163</v>
+        <v>145365</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1765003005358115</v>
+        <v>0.1765003005358114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1482199022433396</v>
+        <v>0.1494884465054613</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2092739662922129</v>
+        <v>0.2110182558853375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>503</v>
@@ -762,19 +762,19 @@
         <v>268584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>248077</v>
+        <v>247969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290984</v>
+        <v>291457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3667008891273986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3387027504987024</v>
+        <v>0.3385546515171122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3972831574289498</v>
+        <v>0.3979287100363562</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>643</v>
@@ -783,19 +783,19 @@
         <v>390171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>358286</v>
+        <v>358609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>423507</v>
+        <v>423434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2745152041602397</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2520819536334439</v>
+        <v>0.2523086714935762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2979695779224976</v>
+        <v>0.2979180877886727</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>100998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85719</v>
+        <v>83384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122432</v>
+        <v>123105</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1466127097243079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1244342019712511</v>
+        <v>0.1210437300494955</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1777271973428941</v>
+        <v>0.1787045188198366</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>218</v>
@@ -833,19 +833,19 @@
         <v>119973</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105045</v>
+        <v>106023</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>134879</v>
+        <v>138459</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1638000100335228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1434196364880936</v>
+        <v>0.1447547456412122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.18415175304839</v>
+        <v>0.1890396677954078</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>338</v>
@@ -854,19 +854,19 @@
         <v>220971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197070</v>
+        <v>198835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>246936</v>
+        <v>250371</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1554697358557524</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.138653815806471</v>
+        <v>0.1398954912190499</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1737381793896212</v>
+        <v>0.1761548715257584</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>75200</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59107</v>
+        <v>59978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94538</v>
+        <v>94771</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1091639203878224</v>
+        <v>0.1091639203878223</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08580172841540908</v>
+        <v>0.08706732806994001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1372351206728546</v>
+        <v>0.1375735112559242</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>192</v>
@@ -904,19 +904,19 @@
         <v>122321</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105223</v>
+        <v>106792</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>140836</v>
+        <v>140417</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1670065577744276</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.143661688623217</v>
+        <v>0.1458048302895903</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.192284753021321</v>
+        <v>0.191713199442633</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>267</v>
@@ -925,19 +925,19 @@
         <v>197522</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>175563</v>
+        <v>174857</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>225161</v>
+        <v>223940</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1389716122084019</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1235217181662684</v>
+        <v>0.1230254819656607</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1584181751826662</v>
+        <v>0.157559273848134</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>107230</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84934</v>
+        <v>82392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>132392</v>
+        <v>130962</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1556604776231275</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1232935576423096</v>
+        <v>0.1196044587787623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1921853982768261</v>
+        <v>0.1901100843493772</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -975,19 +975,19 @@
         <v>106445</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89995</v>
+        <v>88652</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124380</v>
+        <v>124090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1453301996606211</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.122871627084496</v>
+        <v>0.121037331668826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1698168428919639</v>
+        <v>0.1694214392678794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>233</v>
@@ -996,19 +996,19 @@
         <v>213675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>187307</v>
+        <v>182871</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>247681</v>
+        <v>246846</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1503370387925423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1317846469288819</v>
+        <v>0.1286638448982784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1742625080793061</v>
+        <v>0.173675169914385</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>101564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80689</v>
+        <v>82574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>122739</v>
+        <v>127224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1474350204421978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1171309993729534</v>
+        <v>0.1198686583361212</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1781729090607954</v>
+        <v>0.1846834221519819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>108</v>
@@ -1046,19 +1046,19 @@
         <v>74058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60902</v>
+        <v>62251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90158</v>
+        <v>89859</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1011121115747123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08315003306286615</v>
+        <v>0.08499210472933691</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1230933937707444</v>
+        <v>0.1226855205602729</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>199</v>
@@ -1067,19 +1067,19 @@
         <v>175622</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>149856</v>
+        <v>150147</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>201441</v>
+        <v>203652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1235637197176816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1054352597055131</v>
+        <v>0.1056397794198498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1417291938937732</v>
+        <v>0.1432849439493502</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>22313</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14493</v>
+        <v>14226</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33222</v>
+        <v>33926</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03239078813327064</v>
+        <v>0.03239078813327063</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02103921093236268</v>
+        <v>0.02065071257794442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04822661460846389</v>
+        <v>0.0492487629746851</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1117,19 +1117,19 @@
         <v>9372</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5264</v>
+        <v>5297</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16078</v>
+        <v>15839</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01279627712115279</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007187549261857124</v>
+        <v>0.007231821552587558</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02195196009113426</v>
+        <v>0.02162448114178289</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>39</v>
@@ -1138,19 +1138,19 @@
         <v>31686</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>22551</v>
+        <v>21842</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43266</v>
+        <v>43687</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02229326886352492</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01586612276995492</v>
+        <v>0.01536751990818524</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03044123652215739</v>
+        <v>0.0307373840321572</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>5527</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2314</v>
+        <v>2406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11821</v>
+        <v>10825</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.008023771516945905</v>
+        <v>0.008023771516945903</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003359205717865995</v>
+        <v>0.003491997347437585</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01715994728464516</v>
+        <v>0.01571448953736913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1188,19 +1188,19 @@
         <v>4637</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2154</v>
+        <v>2245</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8342</v>
+        <v>8761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006330996767630328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002940413119891603</v>
+        <v>0.003065198609588346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01138936725641137</v>
+        <v>0.01196107706208617</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1209,19 +1209,19 @@
         <v>10164</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5861</v>
+        <v>5572</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16270</v>
+        <v>16173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007151444279997645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004123313116138185</v>
+        <v>0.003920178060875883</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01144736336933654</v>
+        <v>0.01137918765360845</v>
       </c>
     </row>
     <row r="11">
@@ -1238,19 +1238,19 @@
         <v>11906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6725</v>
+        <v>7324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19842</v>
+        <v>19450</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01728366306570213</v>
+        <v>0.01728366306570212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009762790610796181</v>
+        <v>0.0106319981769553</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02880336404127907</v>
+        <v>0.02823389725504414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1262,16 +1262,16 @@
         <v>347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3680</v>
+        <v>3659</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001743959135876939</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.000473621436374493</v>
+        <v>0.0004743417124174213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.005024310164338539</v>
+        <v>0.00499628099951972</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1280,19 +1280,19 @@
         <v>13184</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7362</v>
+        <v>7508</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22148</v>
+        <v>21490</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009275682678719586</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005179920712539564</v>
+        <v>0.005282543626718156</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01558255754289434</v>
+        <v>0.01511978640108765</v>
       </c>
     </row>
     <row r="12">
@@ -1309,19 +1309,19 @@
         <v>142548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>124283</v>
+        <v>123572</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>164912</v>
+        <v>165347</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2069293485708142</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1804146464122603</v>
+        <v>0.1793822889055224</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2393942699730225</v>
+        <v>0.2400255700131553</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -1330,19 +1330,19 @@
         <v>25766</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18820</v>
+        <v>18628</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34761</v>
+        <v>34612</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03517899880465762</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02569550901597332</v>
+        <v>0.0254330708272739</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04745891507868207</v>
+        <v>0.04725554969763129</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>214</v>
@@ -1351,19 +1351,19 @@
         <v>168315</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>146051</v>
+        <v>146435</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>192075</v>
+        <v>189998</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.11842229344314</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1027581251970154</v>
+        <v>0.103028339275923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1351396089400947</v>
+        <v>0.133678260786984</v>
       </c>
     </row>
     <row r="13">
@@ -1455,19 +1455,19 @@
         <v>166558</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>142892</v>
+        <v>141899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195347</v>
+        <v>196402</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1589694378397827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1363823356124711</v>
+        <v>0.1354346202221514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.186447472236864</v>
+        <v>0.1874540437684973</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>478</v>
@@ -1476,19 +1476,19 @@
         <v>305975</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>282929</v>
+        <v>280815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334295</v>
+        <v>333141</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2861685770888001</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2646141351540928</v>
+        <v>0.262636693492644</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3126555575037515</v>
+        <v>0.3115763493035363</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>643</v>
@@ -1497,19 +1497,19 @@
         <v>472533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>438644</v>
+        <v>437178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>514234</v>
+        <v>512292</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2232143261142951</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.207206121301149</v>
+        <v>0.206513595611754</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2429131840492911</v>
+        <v>0.2419958261487139</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>122882</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>103660</v>
+        <v>103992</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>150005</v>
+        <v>146823</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1172835327595565</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09893781092227222</v>
+        <v>0.09925453571446287</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1431713082756572</v>
+        <v>0.1401341105598564</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>262</v>
@@ -1547,19 +1547,19 @@
         <v>176725</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>156722</v>
+        <v>157849</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>197152</v>
+        <v>196819</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1652854631179686</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1465768560215804</v>
+        <v>0.1476314733782769</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1843894134368392</v>
+        <v>0.1840785740879837</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>394</v>
@@ -1568,19 +1568,19 @@
         <v>299607</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>269733</v>
+        <v>269997</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>328352</v>
+        <v>333515</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1415280258516034</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.127415879375183</v>
+        <v>0.1275407723760763</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1551063299045731</v>
+        <v>0.1575453621036591</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>146580</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124001</v>
+        <v>121871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173592</v>
+        <v>178046</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1399019765336406</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1183517748472876</v>
+        <v>0.1163183393451026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1656831379783861</v>
+        <v>0.1699341527096876</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>321</v>
@@ -1618,19 +1618,19 @@
         <v>233893</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>212442</v>
+        <v>208801</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>260153</v>
+        <v>258470</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2187525868907489</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1986896721885364</v>
+        <v>0.1952845034179484</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2433125407079341</v>
+        <v>0.2417384114452561</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>450</v>
@@ -1639,19 +1639,19 @@
         <v>380473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>346892</v>
+        <v>346234</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>418060</v>
+        <v>415742</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1797273140530426</v>
+        <v>0.1797273140530427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1638641750520554</v>
+        <v>0.1635535944542594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.197482540035408</v>
+        <v>0.1963876164868855</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>201954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172331</v>
+        <v>174644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>236473</v>
+        <v>236191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.192753031307784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1644800265147244</v>
+        <v>0.1666874749722025</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2256996053494805</v>
+        <v>0.2254307507774211</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>260</v>
@@ -1689,19 +1689,19 @@
         <v>204884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180387</v>
+        <v>181896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>229743</v>
+        <v>228779</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1916216317903239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1687097306579431</v>
+        <v>0.1701214722964546</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2148710878668772</v>
+        <v>0.2139692416203955</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>420</v>
@@ -1710,19 +1710,19 @@
         <v>406838</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>367518</v>
+        <v>370591</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>448072</v>
+        <v>446597</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.192181591626492</v>
+        <v>0.1921815916264921</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.17360758800698</v>
+        <v>0.1750592233741239</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2116595419276172</v>
+        <v>0.2109628838669403</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>193129</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>163325</v>
+        <v>165985</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>222831</v>
+        <v>225886</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1843299039667176</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.155884566982379</v>
+        <v>0.1584232385763992</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2126796280890216</v>
+        <v>0.2155954650544053</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -1760,19 +1760,19 @@
         <v>95688</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80182</v>
+        <v>78610</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>114266</v>
+        <v>115857</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.08949422389641816</v>
+        <v>0.08949422389641815</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07499196972711716</v>
+        <v>0.07352114382733699</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1068687996622592</v>
+        <v>0.1083573504709525</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>271</v>
@@ -1781,19 +1781,19 @@
         <v>288817</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>256251</v>
+        <v>258370</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>326522</v>
+        <v>327211</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1364309346299352</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1210474955679326</v>
+        <v>0.1220485460322072</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1542418840790203</v>
+        <v>0.1545675130685675</v>
       </c>
     </row>
     <row r="19">
@@ -1810,19 +1810,19 @@
         <v>27048</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17464</v>
+        <v>17146</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40165</v>
+        <v>41496</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02581576701764876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01666858199993235</v>
+        <v>0.01636502014536148</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03833499786405214</v>
+        <v>0.03960511417261534</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1831,19 +1831,19 @@
         <v>17575</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11039</v>
+        <v>10953</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28777</v>
+        <v>28958</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01643701302901977</v>
+        <v>0.01643701302901978</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01032415367288306</v>
+        <v>0.01024356946256707</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02691400112404118</v>
+        <v>0.02708353220605557</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -1852,19 +1852,19 @@
         <v>44623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32389</v>
+        <v>32621</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60085</v>
+        <v>61237</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02107880884551819</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01529998364136192</v>
+        <v>0.01540967621304992</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0283827756200537</v>
+        <v>0.0289269920327712</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>11280</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5331</v>
+        <v>5573</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20294</v>
+        <v>21551</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01076630441926242</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005088348805777869</v>
+        <v>0.005318954365859102</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01936964841560029</v>
+        <v>0.02056927588112897</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1902,19 +1902,19 @@
         <v>3828</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1681</v>
+        <v>1531</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8034</v>
+        <v>8116</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003579928363393914</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001572596896771213</v>
+        <v>0.001431848469614928</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007514176089032381</v>
+        <v>0.007590227202028454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1923,19 +1923,19 @@
         <v>15108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9017</v>
+        <v>9142</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25552</v>
+        <v>25610</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.007136657791669613</v>
+        <v>0.007136657791669616</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004259386570269123</v>
+        <v>0.004318282594346416</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01207000839109863</v>
+        <v>0.01209781651076348</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>20781</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13004</v>
+        <v>12862</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31624</v>
+        <v>31181</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01983393102729725</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01241138287052547</v>
+        <v>0.01227581280199534</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03018286502821594</v>
+        <v>0.029760182862198</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1973,19 +1973,19 @@
         <v>4655</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1804</v>
+        <v>1639</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10838</v>
+        <v>9587</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.004353603508986098</v>
+        <v>0.004353603508986099</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001687311211644394</v>
+        <v>0.001532992115469636</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01013596704255554</v>
+        <v>0.008966106729284114</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>28</v>
@@ -1994,19 +1994,19 @@
         <v>25436</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17463</v>
+        <v>17841</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38209</v>
+        <v>38042</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.01201523101298529</v>
+        <v>0.0120152310129853</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008249332618096206</v>
+        <v>0.008427760312485561</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01804892041069443</v>
+        <v>0.01797030143154392</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>157523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>136072</v>
+        <v>135469</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>183032</v>
+        <v>182067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1503461151283101</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1298728796454065</v>
+        <v>0.1292976114361109</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.17469340598471</v>
+        <v>0.1737726467782192</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -2044,19 +2044,19 @@
         <v>25989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18427</v>
+        <v>18686</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34814</v>
+        <v>36229</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02430697231434072</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01723413896635739</v>
+        <v>0.01747636785345379</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0325602314684459</v>
+        <v>0.03388365695151614</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>206</v>
@@ -2065,19 +2065,19 @@
         <v>183512</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158649</v>
+        <v>159586</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>208941</v>
+        <v>211545</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08668711007445837</v>
+        <v>0.08668711007445841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07494257966472964</v>
+        <v>0.07538524478281651</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09869904812184761</v>
+        <v>0.09992933028507407</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>146299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>121463</v>
+        <v>122533</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>173581</v>
+        <v>177393</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1829561833858898</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1518979983636179</v>
+        <v>0.1532356745894695</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2170742093633603</v>
+        <v>0.2218420514011347</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>354</v>
@@ -2190,19 +2190,19 @@
         <v>259157</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>233617</v>
+        <v>234513</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>283846</v>
+        <v>285704</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3200903378838326</v>
+        <v>0.3200903378838325</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2885444453547252</v>
+        <v>0.2896514271607952</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3505835161824748</v>
+        <v>0.3528784405703758</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>476</v>
@@ -2211,19 +2211,19 @@
         <v>405456</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>370212</v>
+        <v>372479</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>442836</v>
+        <v>442106</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2519493703480236</v>
+        <v>0.2519493703480237</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2300491903306276</v>
+        <v>0.2314576119647906</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2751771889518896</v>
+        <v>0.2747238745633952</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>89669</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71781</v>
+        <v>70439</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>113828</v>
+        <v>111117</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1121368649989059</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08976683648430103</v>
+        <v>0.0880881123455154</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1423496205630583</v>
+        <v>0.138959601411861</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>148</v>
@@ -2261,19 +2261,19 @@
         <v>107764</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>92488</v>
+        <v>91698</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128097</v>
+        <v>125829</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1331011676757235</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1142340408125109</v>
+        <v>0.1132574459576604</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1582153179013076</v>
+        <v>0.1554133056059781</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>229</v>
@@ -2282,19 +2282,19 @@
         <v>197433</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>175055</v>
+        <v>172393</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>227712</v>
+        <v>225682</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1226841576074306</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1087790187095218</v>
+        <v>0.1071249380200854</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1414999112301207</v>
+        <v>0.1402381909759987</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>124103</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>104488</v>
+        <v>102121</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>149469</v>
+        <v>151482</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1551990238628873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1306691096242174</v>
+        <v>0.1277088588960477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1869211353607559</v>
+        <v>0.1894385053159732</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>184</v>
@@ -2332,19 +2332,19 @@
         <v>149160</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>129495</v>
+        <v>131129</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>171568</v>
+        <v>172393</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1842302906463184</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1599422758756681</v>
+        <v>0.1619600125348262</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2119073251527244</v>
+        <v>0.2129265381529846</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>286</v>
@@ -2353,19 +2353,19 @@
         <v>273263</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>245765</v>
+        <v>246507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>307558</v>
+        <v>305833</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1698048645760912</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1527179357662085</v>
+        <v>0.1531786249858391</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1911155980575918</v>
+        <v>0.1900437580831731</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>147844</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>122342</v>
+        <v>121821</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>178885</v>
+        <v>177673</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1848891191982492</v>
+        <v>0.1848891191982491</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1529974143171981</v>
+        <v>0.1523457846177978</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2237077232418486</v>
+        <v>0.2221919272925673</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>173</v>
@@ -2403,19 +2403,19 @@
         <v>148627</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>128331</v>
+        <v>128547</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>171447</v>
+        <v>172603</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.1835723022979468</v>
+        <v>0.1835723022979467</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1585043384280986</v>
+        <v>0.1587713932294157</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2117570383499839</v>
+        <v>0.2131850957061215</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>285</v>
@@ -2424,19 +2424,19 @@
         <v>296471</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>261750</v>
+        <v>263739</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>334243</v>
+        <v>332150</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1842266190725141</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.162651136616965</v>
+        <v>0.1638870510527799</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2076977623300406</v>
+        <v>0.2063975466784951</v>
       </c>
     </row>
     <row r="28">
@@ -2453,19 +2453,19 @@
         <v>169125</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>141073</v>
+        <v>142577</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>197583</v>
+        <v>198418</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2115022974988447</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.176421517649268</v>
+        <v>0.1783021176146656</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.247090324824378</v>
+        <v>0.2481352884936663</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>127</v>
@@ -2474,19 +2474,19 @@
         <v>101341</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>84726</v>
+        <v>85760</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>120156</v>
+        <v>121854</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1251687952396764</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1046472922237054</v>
+        <v>0.1059244817905381</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.148406465144613</v>
+        <v>0.1505045427692828</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>263</v>
@@ -2495,19 +2495,19 @@
         <v>270466</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>235738</v>
+        <v>239650</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>303269</v>
+        <v>305106</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1680672868388857</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1464872672437807</v>
+        <v>0.1489179051430414</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1884507662011777</v>
+        <v>0.1895919174019762</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>32229</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22446</v>
+        <v>21348</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>45870</v>
+        <v>45774</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04030461043772356</v>
+        <v>0.04030461043772354</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02806975547617826</v>
+        <v>0.0266973232933826</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05736348119065718</v>
+        <v>0.05724362443152101</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -2545,19 +2545,19 @@
         <v>16030</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9326</v>
+        <v>9482</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25940</v>
+        <v>26323</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01979944183457597</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01151857985051571</v>
+        <v>0.01171127986871315</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03203940049999873</v>
+        <v>0.03251235419489967</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -2566,19 +2566,19 @@
         <v>48259</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>34966</v>
+        <v>35277</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>64011</v>
+        <v>64284</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02998831150908385</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02172761955855041</v>
+        <v>0.02192108116207488</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03977620022753214</v>
+        <v>0.03994602550119961</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>5665</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1778</v>
+        <v>1918</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12814</v>
+        <v>14413</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.007083878635549041</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.00222403628486302</v>
+        <v>0.002398741597117611</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0160248659302068</v>
+        <v>0.01802468925660344</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2616,19 +2616,19 @@
         <v>4497</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1904</v>
+        <v>1884</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9311</v>
+        <v>8747</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005554323129994825</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002351334352655924</v>
+        <v>0.002327473503462712</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01150039340440077</v>
+        <v>0.01080340860695381</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -2637,19 +2637,19 @@
         <v>10162</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4878</v>
+        <v>5450</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18102</v>
+        <v>17737</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006314348175759417</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003031070680579795</v>
+        <v>0.003386825234307012</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01124874238813757</v>
+        <v>0.01102193744731053</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>14403</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8509</v>
+        <v>8646</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22545</v>
+        <v>23218</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.01801160524714927</v>
+        <v>0.01801160524714926</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01064065892919541</v>
+        <v>0.01081226844412525</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0281943128698936</v>
+        <v>0.02903555631740634</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2687,19 +2687,19 @@
         <v>5066</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2181</v>
+        <v>2159</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9726</v>
+        <v>9920</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.006257094770175525</v>
+        <v>0.006257094770175524</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00269394881856607</v>
+        <v>0.002666343853577015</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01201276069843483</v>
+        <v>0.01225287650187326</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2708,19 +2708,19 @@
         <v>19469</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13026</v>
+        <v>12475</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>30511</v>
+        <v>28689</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01209782583927479</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008094566480557076</v>
+        <v>0.007751761922671826</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01895926153920282</v>
+        <v>0.01782757994616356</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>70301</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55636</v>
+        <v>55811</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>88844</v>
+        <v>88780</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0879164167348014</v>
+        <v>0.08791641673480138</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06957635562462952</v>
+        <v>0.0697953406574658</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1111056131456542</v>
+        <v>0.1110259702041144</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -2758,19 +2758,19 @@
         <v>17995</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11415</v>
+        <v>11982</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25836</v>
+        <v>26641</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02222624652175608</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01409915796038946</v>
+        <v>0.01479944959495438</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03191055927052276</v>
+        <v>0.03290427047161495</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>96</v>
@@ -2779,19 +2779,19 @@
         <v>88296</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>70941</v>
+        <v>72030</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>108284</v>
+        <v>106786</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05486721603293671</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04408275947038526</v>
+        <v>0.0447595592363869</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06728713755950265</v>
+        <v>0.06635689463950412</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>186293</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>162132</v>
+        <v>160094</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>215850</v>
+        <v>216570</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1883715637283186</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1639410457909276</v>
+        <v>0.1618798447915776</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2182581652444488</v>
+        <v>0.2189867688179812</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>510</v>
@@ -2904,19 +2904,19 @@
         <v>352747</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>325207</v>
+        <v>326276</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>379300</v>
+        <v>379411</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3161968091919773</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.291510169768249</v>
+        <v>0.2924684217499601</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3399980925522155</v>
+        <v>0.3400973503068035</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>688</v>
@@ -2925,19 +2925,19 @@
         <v>539040</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>504797</v>
+        <v>503721</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>588366</v>
+        <v>582770</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2561297409060288</v>
+        <v>0.2561297409060287</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.239858944511352</v>
+        <v>0.2393475212199231</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2795671770500583</v>
+        <v>0.2769083728120527</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>109523</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>91272</v>
+        <v>90789</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>129922</v>
+        <v>131435</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1107447831976609</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09229009901669574</v>
+        <v>0.09180195918546247</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1313721552074119</v>
+        <v>0.1329012119731814</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>227</v>
@@ -2975,19 +2975,19 @@
         <v>154682</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>137540</v>
+        <v>134264</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>177108</v>
+        <v>177546</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1386548021809344</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1232882487745522</v>
+        <v>0.1203523595442141</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1587569646458405</v>
+        <v>0.159149454114478</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>347</v>
@@ -2996,19 +2996,19 @@
         <v>264205</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>236422</v>
+        <v>236588</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>294327</v>
+        <v>294212</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1255394507489903</v>
+        <v>0.1255394507489902</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1123379773159984</v>
+        <v>0.1124167673595749</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1398520719065909</v>
+        <v>0.1397974713100986</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>125657</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>104372</v>
+        <v>104149</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>150989</v>
+        <v>148091</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1270589729971743</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.105536607725048</v>
+        <v>0.1053113320827042</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1526733626151397</v>
+        <v>0.1497437426499247</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>231</v>
@@ -3046,19 +3046,19 @@
         <v>169669</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>150249</v>
+        <v>148454</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>192930</v>
+        <v>191466</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1520887617467826</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1346805948789827</v>
+        <v>0.1330720666412351</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.172939485889068</v>
+        <v>0.1716268700707242</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>355</v>
@@ -3067,19 +3067,19 @@
         <v>295326</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>265191</v>
+        <v>263652</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>328234</v>
+        <v>326938</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1403268752387451</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1260080123137628</v>
+        <v>0.1252767466782601</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1559632581589696</v>
+        <v>0.1553476085863714</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>160636</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>137884</v>
+        <v>138053</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>187686</v>
+        <v>188288</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1624288697154899</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1394226815289971</v>
+        <v>0.1395937671043745</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1897800425048462</v>
+        <v>0.1903884946147952</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>281</v>
@@ -3117,19 +3117,19 @@
         <v>213587</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>191490</v>
+        <v>189570</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>238954</v>
+        <v>238199</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1914561636610096</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.171648793076621</v>
+        <v>0.1699272414292418</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2141948505511819</v>
+        <v>0.2135175648487954</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>432</v>
@@ -3138,19 +3138,19 @@
         <v>374224</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>337593</v>
+        <v>339672</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>406700</v>
+        <v>408203</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1778157873702593</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1604101012644133</v>
+        <v>0.161397989689816</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1932473238741856</v>
+        <v>0.193961508099794</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>196699</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>169016</v>
+        <v>173044</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>223014</v>
+        <v>227153</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.198893940492885</v>
+        <v>0.1988939404928851</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.170901622616591</v>
+        <v>0.1749752356774568</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2255019931636489</v>
+        <v>0.2296878735272682</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>212</v>
@@ -3188,19 +3188,19 @@
         <v>161447</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>140696</v>
+        <v>142016</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>183575</v>
+        <v>183782</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1447187747901784</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1261177943305557</v>
+        <v>0.127300897876808</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1645534825025604</v>
+        <v>0.1647395563962015</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>397</v>
@@ -3209,19 +3209,19 @@
         <v>358147</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>323942</v>
+        <v>324058</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>394695</v>
+        <v>394512</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.170176526628349</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1539239805626435</v>
+        <v>0.1539790313806577</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.187542798351236</v>
+        <v>0.187455913977284</v>
       </c>
     </row>
     <row r="39">
@@ -3238,19 +3238,19 @@
         <v>36974</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>26187</v>
+        <v>24931</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>49289</v>
+        <v>51269</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.03738683887545585</v>
+        <v>0.03738683887545584</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02647911027216024</v>
+        <v>0.02520928559405579</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04983915086060538</v>
+        <v>0.05184070434427175</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>28</v>
@@ -3259,19 +3259,19 @@
         <v>18772</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12893</v>
+        <v>12669</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>27281</v>
+        <v>26729</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01682650224989013</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01155731656053771</v>
+        <v>0.01135629456743295</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02445436018586478</v>
+        <v>0.02395975524799128</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>64</v>
@@ -3280,19 +3280,19 @@
         <v>55746</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>42806</v>
+        <v>43028</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>72530</v>
+        <v>70522</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.02648812378318154</v>
+        <v>0.02648812378318153</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02033943235200592</v>
+        <v>0.0204449170450787</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03446309570813923</v>
+        <v>0.03350914993899524</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>15745</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9190</v>
+        <v>8897</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>27290</v>
+        <v>26519</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.015920252023425</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009292846574416145</v>
+        <v>0.008996298085749987</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02759458805005287</v>
+        <v>0.02681493890944353</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>8</v>
@@ -3330,19 +3330,19 @@
         <v>5926</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2563</v>
+        <v>2733</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12647</v>
+        <v>13330</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005311910298996947</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002297807697485137</v>
+        <v>0.002449601322082696</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01133654733156847</v>
+        <v>0.01194858001303458</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>24</v>
@@ -3351,19 +3351,19 @@
         <v>21671</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>13178</v>
+        <v>13882</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>33253</v>
+        <v>35374</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.01029693484912042</v>
+        <v>0.01029693484912041</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.006261779483879377</v>
+        <v>0.006595977193260645</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0158005382221273</v>
+        <v>0.01680831529652763</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>35070</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>25997</v>
+        <v>25580</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>46340</v>
+        <v>45777</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03546119361650862</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02628749949252312</v>
+        <v>0.02586512030243138</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04685684488421988</v>
+        <v>0.04628796955446933</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>17</v>
@@ -3401,19 +3401,19 @@
         <v>10175</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6320</v>
+        <v>6063</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16153</v>
+        <v>16435</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.009121114867828508</v>
+        <v>0.00912111486782851</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005664957452255572</v>
+        <v>0.005435063030443599</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01447960394722988</v>
+        <v>0.01473240100181107</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>63</v>
@@ -3422,19 +3422,19 @@
         <v>45245</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>35009</v>
+        <v>34522</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>57946</v>
+        <v>57663</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.021498726998478</v>
+        <v>0.02149872699847799</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01663498434102994</v>
+        <v>0.01640333033940961</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02753372867093687</v>
+        <v>0.02739895513879275</v>
       </c>
     </row>
     <row r="42">
@@ -3451,19 +3451,19 @@
         <v>122368</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>104882</v>
+        <v>104124</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>144355</v>
+        <v>145318</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1237335853530817</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1060526772922642</v>
+        <v>0.1052858543696322</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1459662359653698</v>
+        <v>0.1469392139230846</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>43</v>
@@ -3472,19 +3472,19 @@
         <v>28587</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>20349</v>
+        <v>20815</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>41449</v>
+        <v>40354</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02562516101240212</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01824014059346971</v>
+        <v>0.01865810961454278</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03715394400100896</v>
+        <v>0.03617253802680458</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>192</v>
@@ -3493,19 +3493,19 @@
         <v>150955</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>128171</v>
+        <v>128559</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>173309</v>
+        <v>173084</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.07172783347684772</v>
+        <v>0.07172783347684769</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06090137031190428</v>
+        <v>0.06108601224210917</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08234929585515298</v>
+        <v>0.08224239250110166</v>
       </c>
     </row>
     <row r="43">
@@ -3597,19 +3597,19 @@
         <v>620735</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>570483</v>
+        <v>569131</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>669629</v>
+        <v>673675</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1760847114007972</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.161829647124162</v>
+        <v>0.1614461578372334</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1899544873213449</v>
+        <v>0.1911022542583818</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1845</v>
@@ -3618,19 +3618,19 @@
         <v>1186464</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1139343</v>
+        <v>1135361</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1237041</v>
+        <v>1233085</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3183532230944283</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3057096349695195</v>
+        <v>0.304641200187052</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3319240739077826</v>
+        <v>0.3308625014123517</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2450</v>
@@ -3639,19 +3639,19 @@
         <v>1807199</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1741886</v>
+        <v>1740185</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1886694</v>
+        <v>1874859</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2491971029518278</v>
+        <v>0.2491971029518277</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2401909293445659</v>
+        <v>0.2399563470968033</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2601586911643961</v>
+        <v>0.2585268153710837</v>
       </c>
     </row>
     <row r="45">
@@ -3668,19 +3668,19 @@
         <v>423071</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>384441</v>
+        <v>383784</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>464046</v>
+        <v>465495</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1200130321410216</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.109054823337019</v>
+        <v>0.1088684490311156</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1316363515742004</v>
+        <v>0.1320474664995391</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>855</v>
@@ -3689,19 +3689,19 @@
         <v>559144</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>519833</v>
+        <v>520844</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>595594</v>
+        <v>596803</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1500301709564912</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1394820780659523</v>
+        <v>0.1397533797350737</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1598104059249308</v>
+        <v>0.1601346884767896</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1308</v>
@@ -3710,19 +3710,19 @@
         <v>982215</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>934018</v>
+        <v>926956</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1040117</v>
+        <v>1041506</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1354389670875</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1287929109227121</v>
+        <v>0.1278191309133816</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1434231528114977</v>
+        <v>0.1436146106980613</v>
       </c>
     </row>
     <row r="46">
@@ -3739,19 +3739,19 @@
         <v>471540</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>426169</v>
+        <v>430558</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>517685</v>
+        <v>521595</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1337622417832984</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1208918285491239</v>
+        <v>0.12213678935878</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.146852239218085</v>
+        <v>0.1479613529695695</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>928</v>
@@ -3760,19 +3760,19 @@
         <v>675044</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>636558</v>
+        <v>635876</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>722132</v>
+        <v>715151</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1811283751043468</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.170801870544213</v>
+        <v>0.1706190078269188</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1937631207348611</v>
+        <v>0.1918901333431613</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1358</v>
@@ -3781,19 +3781,19 @@
         <v>1146583</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1087162</v>
+        <v>1082728</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1209861</v>
+        <v>1204380</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1581038985870495</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1499102298842986</v>
+        <v>0.1492988581486796</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1668292966510725</v>
+        <v>0.1660736125062239</v>
       </c>
     </row>
     <row r="47">
@@ -3810,19 +3810,19 @@
         <v>617665</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>563103</v>
+        <v>569049</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>675161</v>
+        <v>672885</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1752136717945443</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1597359698608743</v>
+        <v>0.1614227708425876</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1915235920401345</v>
+        <v>0.1908779513520223</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>861</v>
@@ -3831,19 +3831,19 @@
         <v>673544</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>631279</v>
+        <v>631376</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>718121</v>
+        <v>718882</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1807259017525022</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1693855328816168</v>
+        <v>0.1694114389027886</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1926870257175858</v>
+        <v>0.1928912392411176</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1370</v>
@@ -3852,19 +3852,19 @@
         <v>1291208</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1222390</v>
+        <v>1222292</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1361917</v>
+        <v>1357711</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1780464301485039</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1685569912001796</v>
+        <v>0.168543498562444</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1877966035124138</v>
+        <v>0.1872165361654429</v>
       </c>
     </row>
     <row r="48">
@@ -3881,19 +3881,19 @@
         <v>660517</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>610069</v>
+        <v>607681</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>716122</v>
+        <v>713493</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1873695636187518</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1730589373271402</v>
+        <v>0.1723814439686757</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2031431150773793</v>
+        <v>0.2023974194349767</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>567</v>
@@ -3902,19 +3902,19 @@
         <v>432535</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>399689</v>
+        <v>397936</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>470950</v>
+        <v>474020</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1160582740482242</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1072448762665702</v>
+        <v>0.106774671258359</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1263658904434016</v>
+        <v>0.1271895555463276</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1130</v>
@@ -3923,19 +3923,19 @@
         <v>1093052</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1029780</v>
+        <v>1030520</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1159740</v>
+        <v>1157737</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1507223894617824</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1419976799730621</v>
+        <v>0.1420998056311107</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1599181353732884</v>
+        <v>0.1596419286367518</v>
       </c>
     </row>
     <row r="49">
@@ -3952,19 +3952,19 @@
         <v>118565</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>96778</v>
+        <v>98061</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>142811</v>
+        <v>143102</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.03363333493130605</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.0274531114409353</v>
+        <v>0.02781719864146161</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04051144210938624</v>
+        <v>0.04059395902014729</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>84</v>
@@ -3973,19 +3973,19 @@
         <v>61749</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>48322</v>
+        <v>48893</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>77148</v>
+        <v>76475</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01656856067441726</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0129658589606017</v>
+        <v>0.01311891722399126</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02070033162865194</v>
+        <v>0.02051997432175438</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>199</v>
@@ -3994,19 +3994,19 @@
         <v>180314</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>157164</v>
+        <v>156676</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>209042</v>
+        <v>210810</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02486367506527503</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02167156771851815</v>
+        <v>0.02160420530782495</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02882512925432718</v>
+        <v>0.02906887351157801</v>
       </c>
     </row>
     <row r="50">
@@ -4023,19 +4023,19 @@
         <v>38217</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>27150</v>
+        <v>27330</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>52463</v>
+        <v>56284</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01084096902897752</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.00770180705312646</v>
+        <v>0.007752708005522439</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01488220016172224</v>
+        <v>0.01596603231766912</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>30</v>
@@ -4044,19 +4044,19 @@
         <v>18888</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>12466</v>
+        <v>13109</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>27618</v>
+        <v>28230</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.005067959014728405</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.003344979562041171</v>
+        <v>0.003517347395433776</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0074104133689054</v>
+        <v>0.007574765430899745</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>69</v>
@@ -4065,19 +4065,19 @@
         <v>57104</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>44993</v>
+        <v>42539</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>73762</v>
+        <v>74601</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.007874194698064928</v>
+        <v>0.007874194698064932</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.006204083376766165</v>
+        <v>0.005865755569880562</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01017116671030832</v>
+        <v>0.01028684285739563</v>
       </c>
     </row>
     <row r="51">
@@ -4094,19 +4094,19 @@
         <v>82160</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>66471</v>
+        <v>67355</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>99469</v>
+        <v>100837</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.0233062922775561</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.01885589935161379</v>
+        <v>0.01910673864759566</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.028216383783981</v>
+        <v>0.02860451576912005</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>33</v>
@@ -4115,19 +4115,19 @@
         <v>21174</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>15043</v>
+        <v>14669</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>29580</v>
+        <v>30301</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.005681350599007182</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.004036280831855937</v>
+        <v>0.003936045747290726</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.007936980809674978</v>
+        <v>0.008130466874546174</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>130</v>
@@ -4136,19 +4136,19 @@
         <v>103333</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>85169</v>
+        <v>85658</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>122207</v>
+        <v>121975</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.01424875999774218</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.01174400315663465</v>
+        <v>0.01181142966332926</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01685132795371646</v>
+        <v>0.01681935300173321</v>
       </c>
     </row>
     <row r="52">
@@ -4165,19 +4165,19 @@
         <v>492740</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>449869</v>
+        <v>454498</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>531474</v>
+        <v>534320</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.139776183023747</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1276148485817586</v>
+        <v>0.1289278609675074</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1507637948444414</v>
+        <v>0.151571125151597</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>150</v>
@@ -4186,19 +4186,19 @@
         <v>98338</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>84198</v>
+        <v>84414</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>116047</v>
+        <v>116642</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.02638618475585439</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0225922092521919</v>
+        <v>0.02264999030178472</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.03113777247528933</v>
+        <v>0.03129753824337748</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>708</v>
@@ -4207,19 +4207,19 @@
         <v>591078</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>548920</v>
+        <v>545833</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>636520</v>
+        <v>639127</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.08150458200225423</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07569133831320497</v>
+        <v>0.07526558406375604</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08777054143983945</v>
+        <v>0.08813001121303625</v>
       </c>
     </row>
     <row r="53">
